--- a/Product Backlog/Product BackLog.xlsx
+++ b/Product Backlog/Product BackLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarevok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarevok\IdeaProjects\SEM-Project\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C6E1D4-25D2-458E-8BFA-03BE5B5AF6C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61891070-3CDD-4604-928F-80626B1BA79B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E44FCAF2-05EF-4A3E-9388-0D83F859B995}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E44FCAF2-05EF-4A3E-9388-0D83F859B995}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -230,6 +230,21 @@
   </si>
   <si>
     <t>Population Report provided with the total population of the continent/region/country not living in cities (including a %).</t>
+  </si>
+  <si>
+    <t>Database connection</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>Giovanmaria</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Create and connect to world database</t>
   </si>
 </sst>
 </file>
@@ -408,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -539,6 +554,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -555,7 +596,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,19 +652,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -637,6 +669,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -970,7 +1020,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,22 +1036,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="L1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="L1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="31"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1037,25 +1087,35 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
+        <v>40</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11">
+        <v>100</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="11">
-        <v>100</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="L3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1065,10 +1125,10 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>10</v>
@@ -1093,10 +1153,10 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>10</v>
@@ -1115,10 +1175,10 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>10</v>
@@ -1143,10 +1203,10 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>10</v>
@@ -1171,10 +1231,10 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>10</v>
@@ -1199,10 +1259,10 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>10</v>
@@ -1221,10 +1281,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>10</v>
@@ -1243,10 +1303,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>10</v>
@@ -1265,10 +1325,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>10</v>
@@ -1287,10 +1347,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>10</v>
@@ -1309,10 +1369,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>10</v>
@@ -1331,10 +1391,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>10</v>
@@ -1353,10 +1413,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>10</v>
@@ -1375,10 +1435,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>10</v>
@@ -1397,10 +1457,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>10</v>
@@ -1419,10 +1479,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>10</v>
@@ -1441,10 +1501,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>10</v>
@@ -1463,10 +1523,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>10</v>
@@ -1485,10 +1545,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>10</v>
@@ -1507,10 +1567,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>10</v>
@@ -1529,10 +1589,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>10</v>
@@ -1551,10 +1611,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>10</v>
@@ -1573,10 +1633,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>10</v>
@@ -1595,10 +1655,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>10</v>
@@ -1617,10 +1677,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>26</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>10</v>
@@ -1639,10 +1699,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>27</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>10</v>
@@ -1661,10 +1721,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>28</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>10</v>
@@ -1683,10 +1743,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>29</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>10</v>
@@ -1705,10 +1765,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>30</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>10</v>
@@ -1727,10 +1787,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>31</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>10</v>
@@ -1749,10 +1809,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>10</v>
@@ -1771,10 +1831,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>10</v>
@@ -1793,10 +1853,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>10</v>
@@ -1815,10 +1875,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>10</v>
@@ -1837,10 +1897,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>10</v>
@@ -1859,10 +1919,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>10</v>
@@ -1881,10 +1941,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>10</v>
@@ -1903,10 +1963,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>10</v>
@@ -1925,12 +1985,20 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>40</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="11">
+        <v>100</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="12"/>
       <c r="H42" s="4"/>
@@ -1938,12 +2006,10 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>41</v>
-      </c>
+      <c r="A43" s="6"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
       <c r="G43" s="12"/>
@@ -1952,11 +2018,9 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>42</v>
-      </c>
+      <c r="A44" s="6"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="36"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="20"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
@@ -1966,12 +2030,10 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>43</v>
-      </c>
+      <c r="A45" s="6"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="37"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
       <c r="G45" s="12"/>
@@ -1980,11 +2042,9 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>44</v>
-      </c>
+      <c r="A46" s="6"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="36"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="20"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
@@ -1994,12 +2054,10 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>45</v>
-      </c>
+      <c r="A47" s="6"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="37"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
       <c r="G47" s="12"/>
@@ -2008,11 +2066,9 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>46</v>
-      </c>
+      <c r="A48" s="6"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="20"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
@@ -2022,12 +2078,10 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>47</v>
-      </c>
+      <c r="A49" s="6"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
       <c r="G49" s="12"/>
@@ -2036,11 +2090,9 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>48</v>
-      </c>
+      <c r="A50" s="6"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="36"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="20"/>
       <c r="E50" s="11"/>
       <c r="F50" s="10"/>
@@ -2050,12 +2102,10 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>49</v>
-      </c>
+      <c r="A51" s="6"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="37"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
       <c r="G51" s="12"/>
@@ -2064,11 +2114,9 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>50</v>
-      </c>
+      <c r="A52" s="6"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="36"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="20"/>
       <c r="E52" s="11"/>
       <c r="F52" s="10"/>
@@ -2078,12 +2126,10 @@
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>51</v>
-      </c>
+      <c r="A53" s="6"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="11"/>
       <c r="F53" s="10"/>
       <c r="G53" s="12"/>
@@ -2092,11 +2138,9 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>52</v>
-      </c>
+      <c r="A54" s="6"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="36"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="20"/>
       <c r="E54" s="11"/>
       <c r="F54" s="10"/>
@@ -2106,12 +2150,10 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>53</v>
-      </c>
+      <c r="A55" s="6"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="11"/>
       <c r="F55" s="10"/>
       <c r="G55" s="12"/>
@@ -2120,11 +2162,9 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>54</v>
-      </c>
+      <c r="A56" s="6"/>
       <c r="B56" s="24"/>
-      <c r="C56" s="36"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="20"/>
       <c r="E56" s="11"/>
       <c r="F56" s="10"/>
@@ -2134,12 +2174,10 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>55</v>
-      </c>
+      <c r="A57" s="6"/>
       <c r="B57" s="24"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="37"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="11"/>
       <c r="F57" s="10"/>
       <c r="G57" s="12"/>
@@ -2148,11 +2186,9 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>56</v>
-      </c>
+      <c r="A58" s="6"/>
       <c r="B58" s="24"/>
-      <c r="C58" s="36"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="20"/>
       <c r="E58" s="11"/>
       <c r="F58" s="10"/>
@@ -2162,12 +2198,10 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>57</v>
-      </c>
+      <c r="A59" s="6"/>
       <c r="B59" s="24"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="37"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="11"/>
       <c r="F59" s="10"/>
       <c r="G59" s="12"/>
@@ -2176,11 +2210,9 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>58</v>
-      </c>
+      <c r="A60" s="6"/>
       <c r="B60" s="24"/>
-      <c r="C60" s="36"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="20"/>
       <c r="E60" s="11"/>
       <c r="F60" s="10"/>
@@ -2190,14 +2222,13 @@
       <c r="J60" s="7"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="35"/>
+      <c r="B64" s="32"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="32"/>
+      <c r="B65" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="1">
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2224,11 +2255,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -2355,21 +2386,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE714F029A1944498C1187C71CE6A5C9" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dacc76c05fba1b052c3bd8a4917f913">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="664c1d2d-403e-4aaa-9b5b-d84cdff106bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71f88469e4631bff9119aa4fa50f9994" ns3:_="">
     <xsd:import namespace="664c1d2d-403e-4aaa-9b5b-d84cdff106bd"/>
@@ -2515,31 +2531,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3C35AE-725D-4BBE-9212-E87DD20A09D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="664c1d2d-403e-4aaa-9b5b-d84cdff106bd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A39DAE-FACF-4DF3-A9E3-884FE7F8BD96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4352C1E-1FBC-41B0-9750-9E20D34F1EF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2555,4 +2562,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A39DAE-FACF-4DF3-A9E3-884FE7F8BD96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3C35AE-725D-4BBE-9212-E87DD20A09D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="664c1d2d-403e-4aaa-9b5b-d84cdff106bd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Product Backlog/Product BackLog.xlsx
+++ b/Product Backlog/Product BackLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarevok\IdeaProjects\SEM-Project\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61891070-3CDD-4604-928F-80626B1BA79B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E0C789-EE47-437D-A762-03331A073F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E44FCAF2-05EF-4A3E-9388-0D83F859B995}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -245,6 +245,18 @@
   </si>
   <si>
     <t>Create and connect to world database</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Show the list</t>
+  </si>
+  <si>
+    <t>Show the list with Limit</t>
   </si>
 </sst>
 </file>
@@ -670,15 +682,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,6 +690,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1020,7 +1032,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1048,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="27"/>
@@ -1048,10 +1060,10 @@
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="28"/>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1092,8 +1104,8 @@
       <c r="B3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>12</v>
+      <c r="C3" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>14</v>
@@ -1110,7 +1122,7 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="36" t="s">
         <v>68</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -1139,11 +1151,21 @@
       <c r="E4" s="11">
         <v>100</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="L4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1167,11 +1189,21 @@
       <c r="E5" s="11">
         <v>100</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
+      <c r="F5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -1189,11 +1221,21 @@
       <c r="E6" s="11">
         <v>100</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="L6" s="14" t="s">
         <v>14</v>
       </c>
@@ -1217,11 +1259,21 @@
       <c r="E7" s="11">
         <v>100</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="L7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1245,11 +1297,21 @@
       <c r="E8" s="11">
         <v>100</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
+      <c r="F8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="L8" s="16" t="s">
         <v>18</v>
       </c>
@@ -1273,11 +1335,21 @@
       <c r="E9" s="11">
         <v>100</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1295,11 +1367,21 @@
       <c r="E10" s="11">
         <v>100</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -1317,11 +1399,21 @@
       <c r="E11" s="11">
         <v>100</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -1339,11 +1431,21 @@
       <c r="E12" s="11">
         <v>100</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -1361,11 +1463,21 @@
       <c r="E13" s="11">
         <v>100</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1383,11 +1495,21 @@
       <c r="E14" s="11">
         <v>100</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1405,11 +1527,21 @@
       <c r="E15" s="11">
         <v>100</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
+      <c r="F15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1427,11 +1559,21 @@
       <c r="E16" s="11">
         <v>100</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
+      <c r="F16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -1449,11 +1591,21 @@
       <c r="E17" s="11">
         <v>100</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1471,11 +1623,21 @@
       <c r="E18" s="11">
         <v>100</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
+      <c r="F18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -1493,11 +1655,21 @@
       <c r="E19" s="11">
         <v>100</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
+      <c r="F19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -2006,7 +2178,9 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
       <c r="B43" s="24"/>
       <c r="C43" s="33"/>
       <c r="D43" s="34"/>
@@ -2018,7 +2192,9 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
       <c r="B44" s="24"/>
       <c r="C44" s="33"/>
       <c r="D44" s="20"/>
@@ -2030,7 +2206,9 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
       <c r="B45" s="24"/>
       <c r="C45" s="33"/>
       <c r="D45" s="34"/>
@@ -2042,7 +2220,9 @@
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
       <c r="B46" s="24"/>
       <c r="C46" s="33"/>
       <c r="D46" s="20"/>
@@ -2054,7 +2234,9 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
       <c r="B47" s="24"/>
       <c r="C47" s="33"/>
       <c r="D47" s="34"/>
@@ -2066,7 +2248,9 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
       <c r="B48" s="24"/>
       <c r="C48" s="33"/>
       <c r="D48" s="20"/>
@@ -2078,7 +2262,9 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
       <c r="B49" s="24"/>
       <c r="C49" s="33"/>
       <c r="D49" s="34"/>
@@ -2090,7 +2276,9 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
       <c r="B50" s="24"/>
       <c r="C50" s="33"/>
       <c r="D50" s="20"/>
@@ -2102,7 +2290,9 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
       <c r="B51" s="24"/>
       <c r="C51" s="33"/>
       <c r="D51" s="34"/>
@@ -2114,7 +2304,9 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
       <c r="B52" s="24"/>
       <c r="C52" s="33"/>
       <c r="D52" s="20"/>
@@ -2126,7 +2318,9 @@
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
       <c r="B53" s="24"/>
       <c r="C53" s="33"/>
       <c r="D53" s="34"/>
@@ -2138,7 +2332,9 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
       <c r="B54" s="24"/>
       <c r="C54" s="33"/>
       <c r="D54" s="20"/>
@@ -2150,7 +2346,9 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
       <c r="B55" s="24"/>
       <c r="C55" s="33"/>
       <c r="D55" s="34"/>
@@ -2162,7 +2360,9 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
       <c r="B56" s="24"/>
       <c r="C56" s="33"/>
       <c r="D56" s="20"/>
@@ -2174,7 +2374,9 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
       <c r="B57" s="24"/>
       <c r="C57" s="33"/>
       <c r="D57" s="34"/>
@@ -2186,7 +2388,9 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="A58" s="6">
+        <v>56</v>
+      </c>
       <c r="B58" s="24"/>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
@@ -2255,11 +2459,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -2386,6 +2590,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE714F029A1944498C1187C71CE6A5C9" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dacc76c05fba1b052c3bd8a4917f913">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="664c1d2d-403e-4aaa-9b5b-d84cdff106bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71f88469e4631bff9119aa4fa50f9994" ns3:_="">
     <xsd:import namespace="664c1d2d-403e-4aaa-9b5b-d84cdff106bd"/>
@@ -2531,22 +2750,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3C35AE-725D-4BBE-9212-E87DD20A09D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="664c1d2d-403e-4aaa-9b5b-d84cdff106bd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A39DAE-FACF-4DF3-A9E3-884FE7F8BD96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4352C1E-1FBC-41B0-9750-9E20D34F1EF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2562,28 +2790,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A39DAE-FACF-4DF3-A9E3-884FE7F8BD96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3C35AE-725D-4BBE-9212-E87DD20A09D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="664c1d2d-403e-4aaa-9b5b-d84cdff106bd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Product Backlog/Product BackLog.xlsx
+++ b/Product Backlog/Product BackLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarevok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarevok\IdeaProjects\SEM-Project\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E30BF5-4636-4EA4-90CC-537C914F9023}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969474EF-9FBB-408E-BE67-59661522565A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E44FCAF2-05EF-4A3E-9388-0D83F859B995}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -940,7 +937,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="A1:J35"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,7 +1985,9 @@
       <c r="H33" s="3">
         <v>3</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="J33" s="6" t="s">
         <v>52</v>
       </c>
@@ -2018,7 +2017,9 @@
       <c r="H34" s="3">
         <v>3</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="J34" s="6" t="s">
         <v>52</v>
       </c>
@@ -2048,7 +2049,9 @@
       <c r="H35" s="3">
         <v>3</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="J35" s="6" t="s">
         <v>52</v>
       </c>
@@ -2060,9 +2063,6 @@
       <c r="B65" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -2073,7 +2073,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D33"/>
+      <selection activeCell="C30" sqref="C30:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,8 +2510,8 @@
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>87</v>
+      <c r="C31" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>82</v>
@@ -2524,8 +2524,8 @@
       <c r="B32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>87</v>
+      <c r="C32" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>83</v>
@@ -2538,8 +2538,8 @@
       <c r="B33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>87</v>
+      <c r="C33" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>84</v>
@@ -2555,21 +2555,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE714F029A1944498C1187C71CE6A5C9" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dacc76c05fba1b052c3bd8a4917f913">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="664c1d2d-403e-4aaa-9b5b-d84cdff106bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71f88469e4631bff9119aa4fa50f9994" ns3:_="">
     <xsd:import namespace="664c1d2d-403e-4aaa-9b5b-d84cdff106bd"/>
@@ -2715,31 +2700,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3C35AE-725D-4BBE-9212-E87DD20A09D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="664c1d2d-403e-4aaa-9b5b-d84cdff106bd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A39DAE-FACF-4DF3-A9E3-884FE7F8BD96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4352C1E-1FBC-41B0-9750-9E20D34F1EF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2755,4 +2731,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A39DAE-FACF-4DF3-A9E3-884FE7F8BD96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3C35AE-725D-4BBE-9212-E87DD20A09D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="664c1d2d-403e-4aaa-9b5b-d84cdff106bd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>